--- a/db/registros_manutencao.xlsx
+++ b/db/registros_manutencao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eurico.dante\Desktop\testes-programação\entrada-manutenção v0.2\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC47511B-B3B0-4D93-8740-FA75102A2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8724AC6F-140A-4295-B2AA-CBD2FD2E658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/registros_manutencao.xlsx
+++ b/db/registros_manutencao.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eurico.dante\Desktop\testes-programação\entrada-manutenção v0.2\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8724AC6F-140A-4295-B2AA-CBD2FD2E658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Protocolo</t>
-  </si>
-  <si>
-    <t>Nome do Cliente</t>
-  </si>
-  <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>Faturamento</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Customização</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Tipo de Problema</t>
-  </si>
-  <si>
-    <t>Tratativa</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Data de Aprovação</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,49 +420,1233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Protocolo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nome do Cliente</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Motivo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Faturamento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Customização</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de Problema</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tratativa</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data de Aprovação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2603241247</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eurico LTDA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GS 419</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>12312321</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Aprovada</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>27-03-2024 16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2603241252</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Devolução/Estoque</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Aprovada</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>27-03-2024 16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2603241255</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Devolução/Estoque</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>321</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Enviado à Diretoria</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>27-03-2024 16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2603241255</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Devolução/Estoque</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>321</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Enviado à Diretoria</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2603241300</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GS 419</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>10985947</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Enviado à Diretoria</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2703241549</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GS 419</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10985947</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Placa Danificada</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Tratativa Placa Danificada</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Enviado à Diretoria</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2803241642</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>421412</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10985947</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2803241646</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GS 419</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10985947</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2803241648</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>421412</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>10985947</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2803241651</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Devolução/Estoque</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>421412</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>321</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2803241652</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>123</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2803241654</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>321</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2803241658</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>321</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2803241658</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>421412</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10985947</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2803241659</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>321</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2803241700</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Devolução/Estoque</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>321</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2803241703</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GS 410</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>10985947</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2803241715</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Devolução/Estoque</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>421412</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>421421</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>111</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2803241716</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Devolução/Estoque</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>421412</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Termo Branco</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>10985947</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2803241718</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Grupo GoldenSat</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>421412</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>321</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2803241724</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Devolução/Estoque</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sem custo</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>321321</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>321312</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2803241732</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>123</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2803241733</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>321321</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Manutenção</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Com custo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Oxidação</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Tratativa Oxidação</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Em Aberto</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/registros_manutencao.xlsx
+++ b/db/registros_manutencao.xlsx
@@ -1,37 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eurico.dante\Desktop\testes-programação\entrada-manutenção v0.3\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7815FE30-5659-4955-BF5C-23464E42DDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+  <si>
+    <t>Protocolo</t>
+  </si>
+  <si>
+    <t>Nome do Cliente</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>Faturamento</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Customização</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tipo de Problema</t>
+  </si>
+  <si>
+    <t>Tratativa</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Data de Aprovação</t>
+  </si>
+  <si>
+    <t>Pronto Cargo</t>
+  </si>
+  <si>
+    <t>Manutenção</t>
+  </si>
+  <si>
+    <t>Com custo</t>
+  </si>
+  <si>
+    <t>GS 410</t>
+  </si>
+  <si>
+    <t>Termo branco</t>
+  </si>
+  <si>
+    <t>Oxidação</t>
+  </si>
+  <si>
+    <t>Tratativa Oxidação</t>
+  </si>
+  <si>
+    <t>Aprovada</t>
+  </si>
+  <si>
+    <t>03-04-2024 16:24</t>
+  </si>
+  <si>
+    <t>Rodomaf</t>
+  </si>
+  <si>
+    <t>Sem custo</t>
+  </si>
+  <si>
+    <t>GS 419</t>
+  </si>
+  <si>
+    <t>Termo branco + imã</t>
+  </si>
+  <si>
+    <t>Sem problemas identificados</t>
+  </si>
+  <si>
+    <t>Tratativa Sem problemas identificados</t>
+  </si>
+  <si>
+    <t>04-04-2024 08:26</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +138,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,180 +462,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Protocolo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nome do Cliente</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Motivo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Faturamento</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Customização</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Problema</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Tratativa</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Data de Aprovação</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>202404031355</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pronto Cargo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Manutenção</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Com custo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GS 410</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Termo branco</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>109805674</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Oxidação</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Tratativa Oxidação</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Aprovada</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>03-04-2024 16:24</t>
-        </is>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>202404031622</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rodomaf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Manutenção</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sem custo</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GS 419</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Termo branco + imã</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
         <v>511512237</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Sem problemas identificados</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Tratativa Sem problemas identificados</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Aprovada</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>04-04-2024 08:26</t>
-        </is>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
